--- a/ref/ingestion/demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_af_demo.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6B6920-C600-6045-BAD0-18299E4DC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D4923-D27F-664D-9D88-0FA228447766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1280" yWindow="7960" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21040" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'strategy_id-0'!$A$1:$AS$676</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2573,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="H576" sqref="H576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26968,10 +26971,10 @@
         <v>243</v>
       </c>
       <c r="H199">
-        <v>0.83599999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="I199">
-        <v>1.1639999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="J199">
         <v>1.11833E-2</v>
@@ -30506,10 +30509,10 @@
         <v>273</v>
       </c>
       <c r="H228">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J228">
         <v>1.0000000000000001E-5</v>
@@ -32458,10 +32461,10 @@
         <v>289</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -33434,10 +33437,10 @@
         <v>297</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -33556,10 +33559,10 @@
         <v>298</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -34166,10 +34169,10 @@
         <v>303</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -34410,10 +34413,10 @@
         <v>305</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -35386,10 +35389,10 @@
         <v>313</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -85499,6 +85502,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AS676" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ref/ingestion/demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_af_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930DC417-8CD6-A645-BF0C-ED76BE2295F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C48743-7F55-AC4B-9FD3-86F09EA7D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21040" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="21040" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -2576,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="O655" sqref="O655"/>
+    <sheetView tabSelected="1" topLeftCell="W384" workbookViewId="0">
+      <selection activeCell="AD414" sqref="AD414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_af_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6245F-DDEB-074A-866B-342CDB4F90D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89393EB-6874-A646-B4A6-DDC6B9303E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="21040" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:AS680"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="G406" sqref="G406"/>
+      <selection activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89393EB-6874-A646-B4A6-DDC6B9303E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE44E682-F6A7-EB43-9EE3-5E542285758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="21040" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="21040" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:AS680"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="D418" sqref="D418"/>
+      <selection activeCell="R403" sqref="R403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
